--- a/按钮矩阵说明.xlsx
+++ b/按钮矩阵说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>按钮接线矩阵</t>
   </si>
@@ -148,16 +148,16 @@
     <t>按钮编号清单</t>
   </si>
   <si>
-    <t>preset</t>
-  </si>
-  <si>
-    <t>mod</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>远光</t>
+    <t>preset按钮</t>
+  </si>
+  <si>
+    <t>双闪</t>
+  </si>
+  <si>
+    <t>N空挡</t>
+  </si>
+  <si>
+    <t>远光灯</t>
   </si>
   <si>
     <t>左方向</t>
@@ -205,7 +205,7 @@
     <t>右手柄旋钮</t>
   </si>
   <si>
-    <t>右funky</t>
+    <t>右摇杆</t>
   </si>
   <si>
     <t>退出</t>
@@ -217,28 +217,79 @@
     <t>设置</t>
   </si>
   <si>
-    <t>背后按钮</t>
+    <t>发动机启动拨档</t>
+  </si>
+  <si>
+    <t>车辆电源拨档</t>
+  </si>
+  <si>
+    <t>mod按钮</t>
   </si>
   <si>
     <t>魔法刹车</t>
   </si>
   <si>
-    <t>左funky右方向</t>
-  </si>
-  <si>
-    <t>左funky左方向</t>
-  </si>
-  <si>
-    <t>左funky点按</t>
-  </si>
-  <si>
-    <t>左funky DDS模式</t>
-  </si>
-  <si>
-    <t>左funky编码器</t>
+    <t>左摇杆右方向</t>
+  </si>
+  <si>
+    <t>左摇杆左方向</t>
+  </si>
+  <si>
+    <t>左摇杆点按</t>
+  </si>
+  <si>
+    <t>左摇杆 DDS模式</t>
+  </si>
+  <si>
+    <t>左摇杆编码器</t>
   </si>
   <si>
     <t>背后旋钮</t>
+  </si>
+  <si>
+    <t>咬合点按钮</t>
+  </si>
+  <si>
+    <t>右摇杆DD按钮</t>
+  </si>
+  <si>
+    <t>不需要按钮编号</t>
+  </si>
+  <si>
+    <t>右摇杆混合按钮</t>
+  </si>
+  <si>
+    <t>模拟编号矩阵</t>
+  </si>
+  <si>
+    <t>12档模式编号</t>
+  </si>
+  <si>
+    <t>增量模式编号</t>
+  </si>
+  <si>
+    <t>模拟1</t>
+  </si>
+  <si>
+    <t>模拟2</t>
+  </si>
+  <si>
+    <t>模拟3</t>
+  </si>
+  <si>
+    <t>模拟4</t>
+  </si>
+  <si>
+    <t>左12档旋钮</t>
+  </si>
+  <si>
+    <t>左旋钮增量模式</t>
+  </si>
+  <si>
+    <t>右12档旋钮</t>
+  </si>
+  <si>
+    <t>右旋钮增量模式</t>
   </si>
 </sst>
 </file>
@@ -892,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +963,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1236,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1321,7 +1390,7 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1330,7 +1399,7 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1582,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1964,7 +2033,7 @@
         <v>34</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C55" s="7"/>
     </row>
@@ -1973,7 +2042,7 @@
         <v>35</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C56" s="7"/>
     </row>
@@ -1982,7 +2051,7 @@
         <v>36</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C57" s="7"/>
     </row>
@@ -1991,7 +2060,7 @@
         <v>37</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C58" s="7"/>
     </row>
@@ -2000,7 +2069,7 @@
         <v>38</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C59" s="7"/>
     </row>
@@ -2009,7 +2078,7 @@
         <v>39</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C60" s="7"/>
     </row>
@@ -2018,7 +2087,7 @@
         <v>40</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C61" s="7"/>
     </row>
@@ -2027,7 +2096,7 @@
         <v>41</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C62" s="7"/>
     </row>
@@ -2197,7 +2266,7 @@
         <v>65</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C86" s="7"/>
     </row>
@@ -2213,7 +2282,7 @@
         <v>67</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C88" s="7"/>
     </row>
@@ -2224,8 +2293,319 @@
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
     </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5">
+        <v>69</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="5"/>
+      <c r="B91" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="5"/>
+      <c r="B92" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="11">
+        <v>70</v>
+      </c>
+      <c r="B98" s="12">
+        <v>84</v>
+      </c>
+      <c r="C98" s="11">
+        <v>0</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <v>82</v>
+      </c>
+      <c r="F98" s="11">
+        <v>96</v>
+      </c>
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="9">
+        <v>70</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="13"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="9">
+        <v>71</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="9">
+        <v>72</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="9">
+        <v>73</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="9">
+        <v>74</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="9">
+        <v>75</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="9">
+        <v>76</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="9">
+        <v>77</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="9">
+        <v>78</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="9">
+        <v>79</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="9">
+        <v>80</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="9">
+        <v>81</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="9">
+        <v>82</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="13"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="9">
+        <v>83</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="9">
+        <v>84</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C114" s="13"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="9">
+        <v>85</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="9">
+        <v>86</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="9">
+        <v>87</v>
+      </c>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="9">
+        <v>88</v>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="9">
+        <v>89</v>
+      </c>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="9">
+        <v>90</v>
+      </c>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="9">
+        <v>91</v>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="9">
+        <v>92</v>
+      </c>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="9">
+        <v>93</v>
+      </c>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="9">
+        <v>94</v>
+      </c>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="9">
+        <v>95</v>
+      </c>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="9">
+        <v>96</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" s="13"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="9">
+        <v>97</v>
+      </c>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="46">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A21:C21"/>
@@ -2254,6 +2634,12 @@
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="E96:H96"/>
     <mergeCell ref="B37:C38"/>
     <mergeCell ref="B39:C40"/>
     <mergeCell ref="B41:C42"/>
@@ -2262,6 +2648,10 @@
     <mergeCell ref="B45:C51"/>
     <mergeCell ref="B62:C85"/>
     <mergeCell ref="B88:C89"/>
+    <mergeCell ref="B100:C111"/>
+    <mergeCell ref="B114:C125"/>
+    <mergeCell ref="B112:C113"/>
+    <mergeCell ref="B126:C127"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/按钮矩阵说明.xlsx
+++ b/按钮矩阵说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="17115"/>
+    <workbookView windowWidth="21000" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,6 +148,9 @@
     <t>按钮编号清单</t>
   </si>
   <si>
+    <t>咬合点按钮</t>
+  </si>
+  <si>
     <t>preset按钮</t>
   </si>
   <si>
@@ -245,9 +248,6 @@
   </si>
   <si>
     <t>背后旋钮</t>
-  </si>
-  <si>
-    <t>咬合点按钮</t>
   </si>
   <si>
     <t>右摇杆DD按钮</t>
@@ -943,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,22 +969,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1308,7 +1293,7 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1651,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1753,7 +1738,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>44</v>
@@ -1762,7 +1747,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>45</v>
@@ -1771,7 +1756,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>46</v>
@@ -1780,7 +1765,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>47</v>
@@ -1789,7 +1774,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>48</v>
@@ -1798,7 +1783,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>49</v>
@@ -1807,7 +1792,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>50</v>
@@ -1816,7 +1801,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>51</v>
@@ -1825,7 +1810,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>52</v>
@@ -1834,7 +1819,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>53</v>
@@ -1843,7 +1828,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>54</v>
@@ -1852,7 +1837,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>55</v>
@@ -1861,7 +1846,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>56</v>
@@ -1870,7 +1855,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>57</v>
@@ -1879,7 +1864,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>58</v>
@@ -1888,7 +1873,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>59</v>
@@ -1897,122 +1882,122 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5">
-        <v>17</v>
-      </c>
-      <c r="B38" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5">
-        <v>18</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5">
-        <v>19</v>
-      </c>
-      <c r="B40" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5">
-        <v>20</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5">
-        <v>21</v>
-      </c>
-      <c r="B42" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5">
-        <v>22</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B43" s="7"/>
       <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5">
-        <v>23</v>
-      </c>
-      <c r="B44" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5">
-        <v>24</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B45" s="7"/>
       <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5">
-        <v>25</v>
-      </c>
-      <c r="B46" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5">
-        <v>31</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B52" s="7"/>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>65</v>
@@ -2021,7 +2006,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>66</v>
@@ -2030,7 +2015,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>67</v>
@@ -2039,7 +2024,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>68</v>
@@ -2048,7 +2033,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>69</v>
@@ -2057,7 +2042,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>70</v>
@@ -2066,7 +2051,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>71</v>
@@ -2075,7 +2060,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>72</v>
@@ -2084,7 +2069,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>73</v>
@@ -2093,7 +2078,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>74</v>
@@ -2102,204 +2087,204 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5">
-        <v>42</v>
-      </c>
-      <c r="B63" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="C63" s="7"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="5">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5">
-        <v>65</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B86" s="7"/>
       <c r="C86" s="7"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5">
-        <v>66</v>
-      </c>
-      <c r="B87" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5">
-        <v>67</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>76</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B88" s="7"/>
       <c r="C88" s="7"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="5">
-        <v>68</v>
-      </c>
-      <c r="B89" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="C89" s="7"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5">
-        <v>69</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B90" s="7"/>
       <c r="C90" s="7"/>
     </row>
     <row r="91" spans="1:4">
@@ -2335,274 +2320,274 @@
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8" t="s">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="11">
+      <c r="A98" s="4">
+        <v>69</v>
+      </c>
+      <c r="B98" s="4">
+        <v>83</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>81</v>
+      </c>
+      <c r="F98" s="4">
+        <v>95</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5">
+        <v>69</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5">
         <v>70</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5">
+        <v>71</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="5">
+        <v>72</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5">
+        <v>73</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5">
+        <v>74</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5">
+        <v>75</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5">
+        <v>76</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5">
+        <v>77</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="5">
+        <v>78</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5">
+        <v>79</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="5">
+        <v>80</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="5">
+        <v>81</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5">
+        <v>82</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5">
+        <v>83</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C114" s="7"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="5">
         <v>84</v>
       </c>
-      <c r="C98" s="11">
-        <v>0</v>
-      </c>
-      <c r="D98" s="11">
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <v>82</v>
-      </c>
-      <c r="F98" s="11">
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="5">
+        <v>85</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="5">
+        <v>86</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="5">
+        <v>87</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="5">
+        <v>88</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="5">
+        <v>89</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="5">
+        <v>90</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="5">
+        <v>91</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="5">
+        <v>92</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="5">
+        <v>93</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="5">
+        <v>94</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="5">
+        <v>95</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" s="7"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="5">
         <v>96</v>
       </c>
-      <c r="G98" s="11">
-        <v>0</v>
-      </c>
-      <c r="H98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="9">
-        <v>70</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" s="13"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="9">
-        <v>71</v>
-      </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="9">
-        <v>72</v>
-      </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="9">
-        <v>73</v>
-      </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="9">
-        <v>74</v>
-      </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="9">
-        <v>75</v>
-      </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="9">
-        <v>76</v>
-      </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="9">
-        <v>77</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="9">
-        <v>78</v>
-      </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="9">
-        <v>79</v>
-      </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="9">
-        <v>80</v>
-      </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="9">
-        <v>81</v>
-      </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="9">
-        <v>82</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C112" s="13"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="9">
-        <v>83</v>
-      </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="9">
-        <v>84</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C114" s="13"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="9">
-        <v>85</v>
-      </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="9">
-        <v>86</v>
-      </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="9">
-        <v>87</v>
-      </c>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="9">
-        <v>88</v>
-      </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="9">
-        <v>89</v>
-      </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="9">
-        <v>90</v>
-      </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="9">
-        <v>91</v>
-      </c>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="9">
-        <v>92</v>
-      </c>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="9">
-        <v>93</v>
-      </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="9">
-        <v>94</v>
-      </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="9">
-        <v>95</v>
-      </c>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="9">
-        <v>96</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C126" s="13"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="9">
-        <v>97</v>
-      </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -2624,7 +2609,7 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
@@ -2634,24 +2619,24 @@
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="A95:H95"/>
     <mergeCell ref="A96:D96"/>
     <mergeCell ref="E96:H96"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="B86:C87"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="B45:C51"/>
-    <mergeCell ref="B62:C85"/>
-    <mergeCell ref="B88:C89"/>
     <mergeCell ref="B100:C111"/>
     <mergeCell ref="B114:C125"/>
     <mergeCell ref="B112:C113"/>
     <mergeCell ref="B126:C127"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B87:C88"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="B46:C52"/>
+    <mergeCell ref="B63:C86"/>
+    <mergeCell ref="B89:C90"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/按钮矩阵说明.xlsx
+++ b/按钮矩阵说明.xlsx
@@ -154,7 +154,7 @@
     <t>preset按钮</t>
   </si>
   <si>
-    <t>双闪</t>
+    <t>无线电</t>
   </si>
   <si>
     <t>N空挡</t>
@@ -193,7 +193,7 @@
     <t>右方向</t>
   </si>
   <si>
-    <t>无线电</t>
+    <t>起步按钮</t>
   </si>
   <si>
     <t>左侧旋钮</t>
@@ -303,13 +303,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -365,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,8 +385,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +395,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -703,16 +712,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +733,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -750,7 +759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -774,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -800,7 +809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -824,7 +833,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -848,7 +857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -874,7 +883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -898,7 +907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -928,7 +937,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -940,7 +949,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -966,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -1122,7 +1131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="3">
         <v>7</v>
       </c>
@@ -1158,7 +1167,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1170,7 +1179,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
       <c r="A22" s="3">
         <v>0</v>
       </c>
@@ -1184,7 +1193,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1198,7 +1207,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -1212,7 +1221,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -1226,7 +1235,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -1240,7 +1249,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -1254,7 +1263,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21">
       <c r="A28" s="3">
         <v>6</v>
       </c>
@@ -1268,7 +1277,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21">
       <c r="A29" s="3">
         <v>7</v>
       </c>
@@ -1282,7 +1291,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="21">
       <c r="A30" s="3">
         <v>8</v>
       </c>
@@ -1296,7 +1305,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="21">
       <c r="A31" s="3">
         <v>9</v>
       </c>
@@ -1310,7 +1319,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="21">
       <c r="A32" s="3">
         <v>10</v>
       </c>
@@ -1324,7 +1333,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21">
       <c r="A33" s="3">
         <v>11</v>
       </c>
@@ -1338,7 +1347,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="3">
         <v>12</v>
       </c>
@@ -1352,7 +1361,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21">
       <c r="A35" s="3">
         <v>13</v>
       </c>
@@ -1366,7 +1375,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21">
       <c r="A36" s="3">
         <v>14</v>
       </c>
@@ -1380,7 +1389,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21">
       <c r="A37" s="3">
         <v>15</v>
       </c>
@@ -1394,7 +1403,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="3">
         <v>16</v>
       </c>
@@ -1408,7 +1417,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="3">
         <v>17</v>
       </c>
